--- a/forecast_summary_B0C4CKFV65.xlsx
+++ b/forecast_summary_B0C4CKFV65.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>24.45977604169633</v>
       </c>
       <c r="D2" t="n">
-        <v>31.01592173249076</v>
+        <v>31.23385943955216</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
@@ -511,6 +516,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>36.10259055118537</v>
       </c>
       <c r="D3" t="n">
-        <v>42.95305336196587</v>
+        <v>43.31790656990621</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
@@ -547,6 +555,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>44.86070568589019</v>
       </c>
       <c r="D4" t="n">
-        <v>51.90015553193474</v>
+        <v>51.84832892393913</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -583,6 +594,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>42.78634444025326</v>
       </c>
       <c r="D5" t="n">
-        <v>50.03811389407069</v>
+        <v>50.09768458210348</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
@@ -619,6 +633,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>31.29597986402112</v>
       </c>
       <c r="D6" t="n">
-        <v>38.14626644093554</v>
+        <v>38.62853783936532</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
@@ -655,6 +672,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>20.2353944206158</v>
       </c>
       <c r="D7" t="n">
-        <v>27.51641276911698</v>
+        <v>27.10948096702732</v>
       </c>
       <c r="E7" t="n">
         <v>11</v>
@@ -691,6 +711,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>18.43611066354743</v>
       </c>
       <c r="D8" t="n">
-        <v>26.25267073271618</v>
+        <v>25.05569356170452</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
@@ -727,6 +750,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>25.98839347113285</v>
       </c>
       <c r="D9" t="n">
-        <v>32.43470637438617</v>
+        <v>33.06492506559677</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -763,6 +789,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>35.8443111755989</v>
       </c>
       <c r="D10" t="n">
-        <v>42.72236157863354</v>
+        <v>42.66427938385517</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
@@ -799,6 +828,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>41.79036202656916</v>
       </c>
       <c r="D11" t="n">
-        <v>48.27969035954516</v>
+        <v>48.60164210553492</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -835,6 +867,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>43.77879750416177</v>
       </c>
       <c r="D12" t="n">
-        <v>50.93430738190172</v>
+        <v>50.98171008438658</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -871,6 +906,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>46.02599435124148</v>
       </c>
       <c r="D13" t="n">
-        <v>52.62469008125986</v>
+        <v>53.17590130658105</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -907,6 +945,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>51.58074466771296</v>
       </c>
       <c r="D14" t="n">
-        <v>58.53655101091236</v>
+        <v>58.68008642354483</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
@@ -943,6 +984,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>59.49898350957406</v>
       </c>
       <c r="D15" t="n">
-        <v>66.28630299257787</v>
+        <v>66.6913713433227</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>66.20512747936019</v>
       </c>
       <c r="D16" t="n">
-        <v>73.20781135981834</v>
+        <v>72.94207811159366</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>68.14273684809855</v>
       </c>
       <c r="D17" t="n">
-        <v>74.97269700754056</v>
+        <v>74.77052500319428</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>63.37712994084702</v>
       </c>
       <c r="D18" t="n">
-        <v>70.14949888986783</v>
+        <v>70.67118895637202</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>52.55379432166549</v>
       </c>
       <c r="D19" t="n">
-        <v>59.4036233200522</v>
+        <v>59.6305226016427</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>39.57016567283657</v>
       </c>
       <c r="D20" t="n">
-        <v>46.7392155033283</v>
+        <v>46.59009069104857</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>30.24928252356996</v>
       </c>
       <c r="D21" t="n">
-        <v>37.2015004628367</v>
+        <v>37.17225124455874</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>A620M S2H</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
